--- a/medicine/Mort/Liste_des_monuments_aux_morts_de_France_protégés_aux_monuments_historiques/Liste_des_monuments_aux_morts_de_France_protégés_aux_monuments_historiques.xlsx
+++ b/medicine/Mort/Liste_des_monuments_aux_morts_de_France_protégés_aux_monuments_historiques/Liste_des_monuments_aux_morts_de_France_protégés_aux_monuments_historiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_monuments_aux_morts_de_France_prot%C3%A9g%C3%A9s_aux_monuments_historiques</t>
+          <t>Liste_des_monuments_aux_morts_de_France_protégés_aux_monuments_historiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article recense les monuments aux morts de France classés ou inscrits aux monuments historiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_monuments_aux_morts_de_France_prot%C3%A9g%C3%A9s_aux_monuments_historiques</t>
+          <t>Liste_des_monuments_aux_morts_de_France_protégés_aux_monuments_historiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,55 +523,13 @@
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La base Mérimée recense 115 entrées de monuments historiques sous le type « monument aux morts »[1]. Beaucoup sont des monuments individuels, mais certains sont protégés en tant que partie d'un édifice plus grand (généralement lorsque le monument est situé à l'intérieur). Dans deux cas (cimetière du Père-Lachaise et jardin d'agronomie tropicale à Paris), les entrées contiennent au moins deux monuments aux morts distincts.
-42 monuments aux morts de la région Occitanie, architecturalement ou artistiquement significatifs, sont inscrits au titre des monuments historiques le 18 octobre 2018[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La base Mérimée recense 115 entrées de monuments historiques sous le type « monument aux morts ». Beaucoup sont des monuments individuels, mais certains sont protégés en tant que partie d'un édifice plus grand (généralement lorsque le monument est situé à l'intérieur). Dans deux cas (cimetière du Père-Lachaise et jardin d'agronomie tropicale à Paris), les entrées contiennent au moins deux monuments aux morts distincts.
+42 monuments aux morts de la région Occitanie, architecturalement ou artistiquement significatifs, sont inscrits au titre des monuments historiques le 18 octobre 2018.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_monuments_aux_morts_de_France_prot%C3%A9g%C3%A9s_aux_monuments_historiques</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_monuments_aux_morts_de_France_prot%C3%A9g%C3%A9s_aux_monuments_historiques</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Liste</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Auvergne-Rhône-Alpes
-Bourgogne-Franche-Comté
-Bretagne
-Centre-Val de Loire
-Corse
-Grand Est
-Guadeloupe
-Hauts-de-France
-Île-de-France
-Martinique
-Normandie
-Nouvelle-Aquitaine
-Occitanie
-Provence-Alpes-Côte d'Azur
-Réunion</t>
         </is>
       </c>
     </row>
